--- a/tables/tables.xlsx
+++ b/tables/tables.xlsx
@@ -641,18 +641,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="GDS Transport Website"/>
+      <name val="Arial"/>
       <b/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="GDS Transport Website"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="GDS Transport Website"/>
+      <name val="Arial"/>
       <b/>
     </font>
     <font>
@@ -663,13 +663,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF808080"/>
-      <name val="GDS Transport Website"/>
+      <name val="Arial"/>
       <b/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF808080"/>
-      <name val="GDS Transport Website"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">

--- a/tables/tables.xlsx
+++ b/tables/tables.xlsx
@@ -9623,10 +9623,10 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="n">
-        <v>1400000</v>
+        <v>1472000</v>
       </c>
       <c r="B7" s="28" t="n">
-        <v>3500000</v>
+        <v>3555000</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>34000</v>
